--- a/oldhousedata.xlsx
+++ b/oldhousedata.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="8080"/>
+    <workbookView windowWidth="18350" windowHeight="8080" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-06" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-07" sheetId="2" r:id="rId2"/>
+    <sheet name="2025-08" sheetId="3" r:id="rId3"/>
+    <sheet name="2025-09" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
   <si>
     <t>date</t>
   </si>
@@ -35,6 +38,96 @@
     <t>value</t>
   </si>
   <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>2025-06-03</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>2025-06-06</t>
+  </si>
+  <si>
+    <t>2025-06-07</t>
+  </si>
+  <si>
+    <t>2025-06-08</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>2025-06-10</t>
+  </si>
+  <si>
+    <t>2025-06-11</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>2025-06-13</t>
+  </si>
+  <si>
+    <t>2025-06-14</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>2025-06-17</t>
+  </si>
+  <si>
+    <t>2025-06-18</t>
+  </si>
+  <si>
+    <t>2025-06-19</t>
+  </si>
+  <si>
+    <t>2025-06-20</t>
+  </si>
+  <si>
+    <t>2025-06-21</t>
+  </si>
+  <si>
+    <t>2025-06-22</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>2025-06-24</t>
+  </si>
+  <si>
+    <t>2025-06-25</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>2025-06-27</t>
+  </si>
+  <si>
+    <t>2025-06-28</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
     <t>2025-07-01</t>
   </si>
   <si>
@@ -128,97 +221,187 @@
     <t>2025-07-31</t>
   </si>
   <si>
-    <t>2025-07-32</t>
-  </si>
-  <si>
-    <t>2025-07-33</t>
-  </si>
-  <si>
-    <t>2025-07-34</t>
-  </si>
-  <si>
-    <t>2025-07-35</t>
-  </si>
-  <si>
-    <t>2025-07-36</t>
-  </si>
-  <si>
-    <t>2025-07-37</t>
-  </si>
-  <si>
-    <t>2025-07-38</t>
-  </si>
-  <si>
-    <t>2025-07-39</t>
-  </si>
-  <si>
-    <t>2025-07-40</t>
-  </si>
-  <si>
-    <t>2025-07-41</t>
-  </si>
-  <si>
-    <t>2025-07-42</t>
-  </si>
-  <si>
-    <t>2025-07-43</t>
-  </si>
-  <si>
-    <t>2025-07-44</t>
-  </si>
-  <si>
-    <t>2025-07-45</t>
-  </si>
-  <si>
-    <t>2025-07-46</t>
-  </si>
-  <si>
-    <t>2025-07-47</t>
-  </si>
-  <si>
-    <t>2025-07-48</t>
-  </si>
-  <si>
-    <t>2025-07-49</t>
-  </si>
-  <si>
-    <t>2025-07-50</t>
-  </si>
-  <si>
-    <t>2025-07-51</t>
-  </si>
-  <si>
-    <t>2025-07-52</t>
-  </si>
-  <si>
-    <t>2025-07-53</t>
-  </si>
-  <si>
-    <t>2025-07-54</t>
-  </si>
-  <si>
-    <t>2025-07-55</t>
-  </si>
-  <si>
-    <t>2025-07-56</t>
-  </si>
-  <si>
-    <t>2025-07-57</t>
-  </si>
-  <si>
-    <t>2025-07-58</t>
-  </si>
-  <si>
-    <t>2025-07-59</t>
-  </si>
-  <si>
-    <t>2025-07-60</t>
-  </si>
-  <si>
-    <t>2025-07-61</t>
-  </si>
-  <si>
-    <t>2025-07-62</t>
+    <t>2025-08-01</t>
+  </si>
+  <si>
+    <t>2025-08-02</t>
+  </si>
+  <si>
+    <t>2025-08-03</t>
+  </si>
+  <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2025-08-09</t>
+  </si>
+  <si>
+    <t>2025-08-10</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>2025-08-13</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-16</t>
+  </si>
+  <si>
+    <t>2025-08-17</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>2025-08-19</t>
+  </si>
+  <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>2025-08-21</t>
+  </si>
+  <si>
+    <t>2025-08-22</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>2025-08-24</t>
+  </si>
+  <si>
+    <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-08-31</t>
+  </si>
+  <si>
+    <t>2025-09-01</t>
+  </si>
+  <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-09-06</t>
+  </si>
+  <si>
+    <t>2025-09-07</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
+  </si>
+  <si>
+    <t>2025-09-12</t>
+  </si>
+  <si>
+    <t>2025-09-13</t>
+  </si>
+  <si>
+    <t>2025-09-14</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-16</t>
+  </si>
+  <si>
+    <t>2025-09-17</t>
+  </si>
+  <si>
+    <t>2025-09-18</t>
+  </si>
+  <si>
+    <t>2025-09-19</t>
+  </si>
+  <si>
+    <t>2025-09-20</t>
+  </si>
+  <si>
+    <t>2025-09-21</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>2025-09-23</t>
+  </si>
+  <si>
+    <t>2025-09-24</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>2025-09-27</t>
+  </si>
+  <si>
+    <t>2025-09-28</t>
+  </si>
+  <si>
+    <t>2025-09-29</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
 </sst>
 </file>
@@ -857,13 +1040,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1210,523 +1393,1090 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11.8181818181818" style="1"/>
+    <col min="1" max="1" width="11.8181818181818" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>469</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>430</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>476</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>423</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>511</v>
+        <v>724</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>260</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>302</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>278</v>
+        <v>933</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>245</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>261</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>368</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>329</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>143</v>
+        <v>626</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>379</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>557</v>
+        <v>892</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>424</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>428</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>466</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>253</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>267</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>289</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>521</v>
+        <v>924</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>300</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>284</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>333</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>327</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>224</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B29">
-        <v>381</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B30">
-        <v>518</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B31">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>177</v>
-      </c>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="14.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="14.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32">
+        <v>910</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="14.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>